--- a/Vienna Transit Model.xlsx
+++ b/Vienna Transit Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjcma\Desktop\Vienna Transit Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peyton\Documents\Classes S4-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926D1606-B732-43FD-8AB6-8341DCD5F712}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39EE4E6D-B2E2-4F67-BF75-B3DAF70D1AEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9953E14C-9696-4C96-BCA9-D9AC340EC263}"/>
+    <workbookView xWindow="1044" yWindow="3540" windowWidth="17280" windowHeight="8964" xr2:uid="{9953E14C-9696-4C96-BCA9-D9AC340EC263}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Langenfeldg</t>
+  </si>
+  <si>
+    <t>Karlsplatz</t>
+  </si>
+  <si>
+    <t>LandstraBe</t>
+  </si>
+  <si>
+    <t>Stephensplatz</t>
+  </si>
+  <si>
+    <t>Volkstheeter</t>
+  </si>
+  <si>
+    <t>Westbahnhof</t>
+  </si>
+  <si>
+    <t>Schwedenplatz</t>
+  </si>
+  <si>
+    <t>Praterstern</t>
+  </si>
+  <si>
+    <t>Schottenring</t>
+  </si>
+  <si>
+    <t>Spittelau</t>
+  </si>
+  <si>
+    <t>RoBauer Lande</t>
+  </si>
+  <si>
+    <t>Schonbrunn</t>
+  </si>
+  <si>
+    <t>Kragan</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>To/From</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t># Stops</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,8 +140,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +471,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77088CD3-3F4B-4F2D-9E26-1B02266D534F}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="13.21875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>VLOOKUP(I5,$C$5:$D$17,2)</f>
+        <v>Langenfeldg</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>VLOOKUP(K5,$C$5:$D$17,2)</f>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" ref="J6:J42" si="0">VLOOKUP(I6,$C$5:$D$17,2)</f>
+        <v>Langenfeldg</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" ref="L6:L42" si="1">VLOOKUP(K6,$C$5:$D$17,2)</f>
+        <v>Schonbrunn</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Langenfeldg</v>
+      </c>
+      <c r="K7" s="1">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Westbahnhof</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Langenfeldg</v>
+      </c>
+      <c r="M9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LandstraBe</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LandstraBe</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LandstraBe</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>LandstraBe</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="M16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LandstraBe</v>
+      </c>
+      <c r="M18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Westbahnhof</v>
+      </c>
+      <c r="M20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Karlsplatz</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="M22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I23" s="1">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Westbahnhof</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Westbahnhof</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Langenfeldg</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I25" s="1">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Westbahnhof</v>
+      </c>
+      <c r="K25" s="1">
+        <v>10</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Spittelau</v>
+      </c>
+      <c r="M25" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I26" s="1">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="K26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Stephensplatz</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>LandstraBe</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="K29" s="1">
+        <v>8</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Praterstern</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I30" s="1">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Praterstern</v>
+      </c>
+      <c r="K30" s="1">
+        <v>7</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Praterstern</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="I32" s="1">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Praterstern</v>
+      </c>
+      <c r="K32" s="1">
+        <v>13</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Kragan</v>
+      </c>
+      <c r="M32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I33" s="1">
+        <v>9</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schwedenplatz</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <v>9</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Volkstheeter</v>
+      </c>
+      <c r="M34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35" s="1">
+        <v>9</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="K35" s="1">
+        <v>11</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoBauer Lande</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I36" s="1">
+        <v>9</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="K36" s="1">
+        <v>8</v>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Praterstern</v>
+      </c>
+      <c r="M36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Spittelau</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Westbahnhof</v>
+      </c>
+      <c r="M37" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Spittelau</v>
+      </c>
+      <c r="K38" s="1">
+        <v>11</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>RoBauer Lande</v>
+      </c>
+      <c r="M38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I39" s="1">
+        <v>11</v>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RoBauer Lande</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Spittelau</v>
+      </c>
+      <c r="M39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I40" s="1">
+        <v>11</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>RoBauer Lande</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Schottenring</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I41" s="1">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Schonbrunn</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Langenfeldg</v>
+      </c>
+      <c r="M41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I42" s="1">
+        <v>13</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Kragan</v>
+      </c>
+      <c r="K42" s="1">
+        <v>8</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Praterstern</v>
+      </c>
+      <c r="M42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>